--- a/es/es-date.xlsx
+++ b/es/es-date.xlsx
@@ -30,219 +30,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Spanish</t>
   </si>
   <si>
-    <t>English</t>
+    <t>French</t>
   </si>
   <si>
     <t>mañana</t>
   </si>
   <si>
-    <t>morning</t>
+    <t>matin</t>
   </si>
   <si>
     <t>tarde</t>
   </si>
   <si>
-    <t>afternoon</t>
+    <t>après-midi</t>
   </si>
   <si>
     <t>noche</t>
   </si>
   <si>
-    <t>evening</t>
+    <t>soir</t>
+  </si>
+  <si>
+    <t>nuit</t>
   </si>
   <si>
     <t>amanecer</t>
   </si>
   <si>
-    <t>dawn</t>
+    <t>aube</t>
   </si>
   <si>
     <t>oscuridad</t>
   </si>
   <si>
-    <t>dusk</t>
+    <t>crépuscule</t>
   </si>
   <si>
     <t>Enero</t>
   </si>
   <si>
-    <t>January</t>
+    <t>Janvier</t>
   </si>
   <si>
     <t>Julio</t>
   </si>
   <si>
-    <t>July</t>
+    <t>Juillet</t>
   </si>
   <si>
     <t>Febrero</t>
   </si>
   <si>
-    <t>February</t>
+    <t>Février</t>
   </si>
   <si>
     <t>Agosto</t>
   </si>
   <si>
-    <t>August</t>
+    <t>Août</t>
   </si>
   <si>
     <t>Marzo</t>
   </si>
   <si>
-    <t>March</t>
+    <t>Mars</t>
   </si>
   <si>
     <t>Septiembre</t>
   </si>
   <si>
-    <t>September</t>
+    <t>Septembre</t>
   </si>
   <si>
     <t>Abril</t>
   </si>
   <si>
-    <t>April</t>
+    <t>Avril</t>
   </si>
   <si>
     <t>Octubre</t>
   </si>
   <si>
-    <t>October</t>
+    <t>Octobre</t>
   </si>
   <si>
     <t>Puede</t>
   </si>
   <si>
-    <t>May</t>
+    <t>Mai</t>
   </si>
   <si>
     <t>Noviembre</t>
   </si>
   <si>
-    <t>November</t>
+    <t>Novembre</t>
   </si>
   <si>
     <t>Junio</t>
   </si>
   <si>
-    <t>June</t>
+    <t>Juin</t>
   </si>
   <si>
     <t>Diciembre</t>
   </si>
   <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>French</t>
+    <t>Décembre</t>
   </si>
   <si>
     <t>Lunes</t>
   </si>
   <si>
-    <t>Monday</t>
+    <t>Lundi</t>
   </si>
   <si>
     <t>Martes</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>Mardi</t>
   </si>
   <si>
     <t>Miércoles</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Mercredi</t>
   </si>
   <si>
     <t>Jueves</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Jeudi</t>
   </si>
   <si>
     <t>Viernes</t>
   </si>
   <si>
-    <t>Friday</t>
+    <t>Vendredi</t>
   </si>
   <si>
     <t>Sábado</t>
   </si>
   <si>
-    <t>Saturday</t>
+    <t>Samedi</t>
   </si>
   <si>
     <t>Domingo</t>
   </si>
   <si>
-    <t>Sunday</t>
+    <t>Dimanche</t>
   </si>
   <si>
     <t>año</t>
   </si>
   <si>
-    <t>year</t>
+    <t>an (année)</t>
   </si>
   <si>
     <t>estación</t>
   </si>
   <si>
-    <t>season</t>
+    <t>saison</t>
   </si>
   <si>
     <t>mes</t>
   </si>
   <si>
-    <t>month</t>
+    <t>mois</t>
   </si>
   <si>
     <t>primavera</t>
   </si>
   <si>
-    <t>spring</t>
+    <t>printemps</t>
   </si>
   <si>
     <t>semana</t>
   </si>
   <si>
-    <t>week</t>
+    <t>semaine</t>
   </si>
   <si>
     <t>verano</t>
   </si>
   <si>
-    <t>summer</t>
+    <t>été</t>
   </si>
   <si>
     <t>día</t>
   </si>
   <si>
-    <t>day</t>
+    <t>jour</t>
   </si>
   <si>
     <t>otoño</t>
   </si>
   <si>
-    <t>autumn</t>
+    <t>automne</t>
   </si>
   <si>
     <t>hora</t>
   </si>
   <si>
-    <t>hour</t>
+    <t>heure</t>
   </si>
   <si>
     <t>invierno</t>
   </si>
   <si>
-    <t>winter</t>
+    <t>hiver</t>
   </si>
   <si>
     <t>minuto</t>
@@ -254,7 +254,7 @@
     <t>segundo</t>
   </si>
   <si>
-    <t>second</t>
+    <t>seconde</t>
   </si>
 </sst>
 </file>
@@ -870,11 +870,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1410,16 +1413,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.1538461538462" customWidth="1"/>
-    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
+    <col min="1" max="1" width="10.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="11.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1447,7 +1450,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1455,22 +1458,31 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1481,8 +1493,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1507,86 +1519,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1600,8 +1612,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1612,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1686,7 +1698,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D1" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1699,13 +1711,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
